--- a/biology/Zoologie/Eira_barbara/Eira_barbara.xlsx
+++ b/biology/Zoologie/Eira_barbara/Eira_barbara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martre à tête grise, Tayra
 La Martre à tête grise ou Tayra (Eira barbara), est une espèce de mammifères de la famille des Mustélidés, vivant en Amérique du Nord, en Amérique centrale et en Amérique du Sud. C'est la seule espèce du genre Eira.
@@ -512,10 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique : Eira barbara  (Linnaeus, 1758)
-Noms vulgaires (vulgarisation scientifique) ou vernaculaires (langage courant): Tayra[2],[3],[4] comme en anglais et en allemand[5] ou Martre à tête grise[2],[3].</t>
+Noms vulgaires (vulgarisation scientifique) ou vernaculaires (langage courant): Tayra comme en anglais et en allemand ou Martre à tête grise,.</t>
         </is>
       </c>
     </row>
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Morphologie
-Longueur du corps : 38 à 47 cm
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Longueur du corps : 38 à 47 cm
 Longueur de la queue : 60 à 68 cm
 Poids adulte : 4 à 6,5 kg
-Couleur de pelage : variable, du blond platine au noir, parfois marbré.
-Physiologie
-Gestation : 30 à 68 jours
+Couleur de pelage : variable, du blond platine au noir, parfois marbré.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eira_barbara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gestation : 30 à 68 jours
 Nombre de jeunes par portée : 2 à 4
 Longévité :
 Libre  : 10 ans
@@ -559,39 +612,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eira_barbara</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie et comportement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Régime alimentaire
-La tayra est omnivore. Elle se nourrit de rongeurs, d'oiseaux, d'insectes et de fruits.
-Prédateurs
-Aigle royal et les rapaces en général.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -613,15 +633,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition géographique
-En Amérique Centrale et du Sud, dans les milieux tropicaux, du Sud du Mexique au nord de l'Argentine.
-Habitat
-Forêts plus ou moins denses, clairières.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tayra est omnivore. Elle se nourrit de rongeurs, d'oiseaux, d'insectes et de fruits.
 </t>
         </is>
       </c>
@@ -647,14 +670,161 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aigle royal et les rapaces en général.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eira_barbara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Amérique Centrale et du Sud, dans les milieux tropicaux, du Sud du Mexique au nord de l'Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eira_barbara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts plus ou moins denses, clairières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eira_barbara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778) et le genre en 1842 par le naturaliste britannique Charles Hamilton Smith (1776-1859).
-Liste des sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (29 mai 2013)[6] et Catalogue of Life                                   (29 mai 2013)[7] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778) et le genre en 1842 par le naturaliste britannique Charles Hamilton Smith (1776-1859).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eira_barbara</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eira_barbara</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (29 mai 2013) et Catalogue of Life                                   (29 mai 2013) :
 sous-espèce Eira barbara barbara (Linnaeus, 1758)
 sous-espèce Eira barbara biologiae (Thomas, 1900)
 sous-espèce Eira barbara inserta (J. A. Allen, 1908)
